--- a/webcrawler/data/servents.xlsx
+++ b/webcrawler/data/servents.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F461"/>
+  <dimension ref="A1:F462"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,26 +470,26 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Foreigner</t>
+          <t>Berserker</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>蒼崎青子</t>
+          <t>ヘンリー・ジキル＆ハイド</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>蒼崎青子</t>
+          <t>亨利·傑基爾＆海德</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>蒼崎青子</t>
+          <t>亨利．傑基爾＆海德</t>
         </is>
       </c>
     </row>
@@ -498,26 +498,26 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Berserker</t>
+          <t>Foreigner</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ヘンリー・ジキル＆ハイド</t>
+          <t>蒼崎青子</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>亨利·傑基爾＆海德</t>
+          <t>蒼崎青子</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>亨利．傑基爾＆海德</t>
+          <t>蒼崎青子</t>
         </is>
       </c>
     </row>
@@ -11911,7 +11911,11 @@
           <t>瑪麗·安託瓦內特〔Alter〕</t>
         </is>
       </c>
-      <c r="F410" t="inlineStr"/>
+      <c r="F410" t="inlineStr">
+        <is>
+          <t>瑪莉．安東尼〔Alter〕</t>
+        </is>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
@@ -11935,7 +11939,11 @@
           <t>耀星哈桑</t>
         </is>
       </c>
-      <c r="F411" t="inlineStr"/>
+      <c r="F411" t="inlineStr">
+        <is>
+          <t>耀星的哈桑</t>
+        </is>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
@@ -11959,7 +11967,11 @@
           <t>巖窟王　基督山</t>
         </is>
       </c>
-      <c r="F412" t="inlineStr"/>
+      <c r="F412" t="inlineStr">
+        <is>
+          <t>巖窟王　基督山</t>
+        </is>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
@@ -11983,7 +11995,11 @@
           <t>亞歷山德羅·迪·卡利奧斯特羅</t>
         </is>
       </c>
-      <c r="F413" t="inlineStr"/>
+      <c r="F413" t="inlineStr">
+        <is>
+          <t>亞歷山德羅．迪．卡廖斯特羅</t>
+        </is>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
@@ -12434,7 +12450,11 @@
           <t>ロウヒ</t>
         </is>
       </c>
-      <c r="E432" t="inlineStr"/>
+      <c r="E432" t="inlineStr">
+        <is>
+          <t>婁希</t>
+        </is>
+      </c>
       <c r="F432" t="inlineStr"/>
     </row>
     <row r="433">
@@ -12454,7 +12474,11 @@
           <t>アビゲイル・ウィリアムズ〔サンタ〕</t>
         </is>
       </c>
-      <c r="E433" t="inlineStr"/>
+      <c r="E433" t="inlineStr">
+        <is>
+          <t>阿比蓋爾·威廉姆斯〔聖誕〕</t>
+        </is>
+      </c>
       <c r="F433" t="inlineStr"/>
     </row>
     <row r="434">
@@ -13016,6 +13040,26 @@
       </c>
       <c r="E461" t="inlineStr"/>
       <c r="F461" t="inlineStr"/>
+    </row>
+    <row r="462">
+      <c r="A462" t="n">
+        <v>459</v>
+      </c>
+      <c r="B462" t="n">
+        <v>5</v>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>Pretender</t>
+        </is>
+      </c>
+      <c r="D462" t="inlineStr">
+        <is>
+          <t>ソロモン</t>
+        </is>
+      </c>
+      <c r="E462" t="inlineStr"/>
+      <c r="F462" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
